--- a/1.0/library/steven-core/src/main/java/com/stevenprogramming/library/core/practices/VisitorAnalysis.xlsx
+++ b/1.0/library/steven-core/src/main/java/com/stevenprogramming/library/core/practices/VisitorAnalysis.xlsx
@@ -51,6 +51,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -176,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,10 +223,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2307,7 +2304,7 @@
   <dimension ref="C1:T101"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R44" activeCellId="0" sqref="R44"/>
+      <selection pane="topLeft" activeCell="G48" activeCellId="0" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2664,7 +2661,7 @@
       <c r="L16" s="2" t="n">
         <v>922</v>
       </c>
-      <c r="N16" s="12" t="n">
+      <c r="N16" s="0" t="n">
         <v>16</v>
       </c>
       <c r="Q16" s="0" t="n">
@@ -2829,7 +2826,7 @@
       <c r="F22" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="G22" s="13" t="n">
+      <c r="G22" s="12" t="n">
         <v>33</v>
       </c>
       <c r="H22" s="9" t="n">
@@ -2844,7 +2841,7 @@
       <c r="L22" s="2" t="n">
         <v>972</v>
       </c>
-      <c r="N22" s="12" t="n">
+      <c r="N22" s="0" t="n">
         <v>22</v>
       </c>
       <c r="O22" s="0" t="n">
@@ -3079,10 +3076,10 @@
       <c r="L29" s="2" t="n">
         <v>977</v>
       </c>
-      <c r="N29" s="12" t="n">
+      <c r="N29" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="O29" s="12" t="n">
+      <c r="O29" s="0" t="n">
         <v>977</v>
       </c>
       <c r="R29" s="0" t="n">
@@ -3188,16 +3185,16 @@
       <c r="G33" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="K33" s="13" t="n">
+      <c r="K33" s="12" t="n">
         <v>33</v>
       </c>
-      <c r="L33" s="13" t="n">
+      <c r="L33" s="12" t="n">
         <v>850</v>
       </c>
-      <c r="N33" s="12" t="n">
+      <c r="N33" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="O33" s="12" t="n">
+      <c r="O33" s="0" t="n">
         <v>850</v>
       </c>
     </row>
@@ -3406,7 +3403,7 @@
       <c r="O43" s="5" t="n">
         <v>341</v>
       </c>
-      <c r="R43" s="14" t="s">
+      <c r="R43" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3913,10 +3910,10 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="13" t="n">
+      <c r="C70" s="12" t="n">
         <v>3</v>
       </c>
-      <c r="D70" s="13" t="n">
+      <c r="D70" s="12" t="n">
         <v>33</v>
       </c>
       <c r="K70" s="5" t="n">
@@ -4045,10 +4042,10 @@
       <c r="L76" s="2" t="n">
         <v>671</v>
       </c>
-      <c r="N76" s="12" t="n">
+      <c r="N76" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="O76" s="12" t="n">
+      <c r="O76" s="0" t="n">
         <v>671</v>
       </c>
     </row>
@@ -4323,10 +4320,10 @@
       <c r="L95" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="N95" s="12" t="n">
+      <c r="N95" s="0" t="n">
         <v>95</v>
       </c>
-      <c r="O95" s="12" t="n">
+      <c r="O95" s="0" t="n">
         <v>248</v>
       </c>
     </row>
@@ -4365,10 +4362,10 @@
       <c r="L98" s="2" t="n">
         <v>778</v>
       </c>
-      <c r="N98" s="12" t="n">
+      <c r="N98" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="O98" s="12" t="n">
+      <c r="O98" s="0" t="n">
         <v>778</v>
       </c>
     </row>
@@ -4382,7 +4379,7 @@
       <c r="N99" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="O99" s="12" t="n">
+      <c r="O99" s="0" t="n">
         <v>601</v>
       </c>
     </row>
@@ -4396,7 +4393,7 @@
       <c r="N100" s="0" t="n">
         <v>100</v>
       </c>
-      <c r="O100" s="12" t="n">
+      <c r="O100" s="0" t="n">
         <v>935</v>
       </c>
     </row>
@@ -4412,7 +4409,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
